--- a/data/pca/factorExposure/factorExposure_2017-09-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02338022031314773</v>
+        <v>0.008307695305723631</v>
       </c>
       <c r="C2">
-        <v>0.002538827085005803</v>
+        <v>0.04094015296846924</v>
       </c>
       <c r="D2">
-        <v>-0.01243492763622993</v>
+        <v>-0.02915765275043529</v>
       </c>
       <c r="E2">
-        <v>0.01163960282345983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02411715247079503</v>
+      </c>
+      <c r="F2">
+        <v>0.0241300377373524</v>
+      </c>
+      <c r="G2">
+        <v>0.02796695470172852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01312176049849806</v>
+        <v>0.05203329558015651</v>
       </c>
       <c r="C3">
-        <v>0.04858343979363688</v>
+        <v>0.07773633254930538</v>
       </c>
       <c r="D3">
-        <v>-0.01188773780300328</v>
+        <v>-0.0144433060076505</v>
       </c>
       <c r="E3">
-        <v>0.01017381384714327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08659585241578906</v>
+      </c>
+      <c r="F3">
+        <v>0.07377546989514176</v>
+      </c>
+      <c r="G3">
+        <v>0.0693334547479954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02216084774298356</v>
+        <v>0.05734747515111432</v>
       </c>
       <c r="C4">
-        <v>0.01981648687857001</v>
+        <v>0.06315789112066264</v>
       </c>
       <c r="D4">
-        <v>-0.06387391657953181</v>
+        <v>-0.02251814100383135</v>
       </c>
       <c r="E4">
-        <v>-0.01352454208878498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01029547432951203</v>
+      </c>
+      <c r="F4">
+        <v>0.007192729842505368</v>
+      </c>
+      <c r="G4">
+        <v>0.04872338566018348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01526895307749227</v>
+        <v>0.03192465545570206</v>
       </c>
       <c r="C6">
-        <v>0.02333592878890524</v>
+        <v>0.05236931573320293</v>
       </c>
       <c r="D6">
-        <v>-0.08392875747130132</v>
+        <v>-0.01598747599888476</v>
       </c>
       <c r="E6">
-        <v>-0.0004405793713177594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01120313512415455</v>
+      </c>
+      <c r="F6">
+        <v>0.006293554804186394</v>
+      </c>
+      <c r="G6">
+        <v>0.0302806358120255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01013761464993444</v>
+        <v>0.01720914054629652</v>
       </c>
       <c r="C7">
-        <v>0.003429883643354662</v>
+        <v>0.0378847398171842</v>
       </c>
       <c r="D7">
-        <v>-0.03755553225995278</v>
+        <v>-0.01314717513362995</v>
       </c>
       <c r="E7">
-        <v>-0.06930415768251212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.0125551626675127</v>
+      </c>
+      <c r="F7">
+        <v>0.001622490327700582</v>
+      </c>
+      <c r="G7">
+        <v>0.08122529060288979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002808570812146135</v>
+        <v>-0.003434367855185966</v>
       </c>
       <c r="C8">
-        <v>-0.01037938555605612</v>
+        <v>0.0191233473422018</v>
       </c>
       <c r="D8">
-        <v>-0.01281208642104616</v>
+        <v>-0.003962682910823388</v>
       </c>
       <c r="E8">
-        <v>-0.00707002924680681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02108809273377175</v>
+      </c>
+      <c r="F8">
+        <v>0.02274203956380939</v>
+      </c>
+      <c r="G8">
+        <v>0.02403235751862419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0147744465314632</v>
+        <v>0.0295134151208335</v>
       </c>
       <c r="C9">
-        <v>0.01896019098638502</v>
+        <v>0.04371059704655617</v>
       </c>
       <c r="D9">
-        <v>-0.04612028461980285</v>
+        <v>-0.01593030248489523</v>
       </c>
       <c r="E9">
-        <v>-0.003227745162388653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01080126269877831</v>
+      </c>
+      <c r="F9">
+        <v>0.01533896797992015</v>
+      </c>
+      <c r="G9">
+        <v>0.03986898393727169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01010991941858631</v>
+        <v>0.09455183735586008</v>
       </c>
       <c r="C10">
-        <v>0.1479884861487704</v>
+        <v>-0.1821524852343406</v>
       </c>
       <c r="D10">
-        <v>0.1354347063794153</v>
+        <v>0.01796810999756774</v>
       </c>
       <c r="E10">
-        <v>-0.01963407074984667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01320758844131353</v>
+      </c>
+      <c r="F10">
+        <v>-0.01147475373354359</v>
+      </c>
+      <c r="G10">
+        <v>0.0406775231749021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0002107812478167103</v>
+        <v>0.03251147684297685</v>
       </c>
       <c r="C11">
-        <v>0.007207671878681341</v>
+        <v>0.05413650940947311</v>
       </c>
       <c r="D11">
-        <v>-0.0447029896205856</v>
+        <v>-0.001834799889306965</v>
       </c>
       <c r="E11">
-        <v>0.01121218115458921</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001021645916252082</v>
+      </c>
+      <c r="F11">
+        <v>0.0177023748733744</v>
+      </c>
+      <c r="G11">
+        <v>0.02277472861146591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005370253272342868</v>
+        <v>0.03087762341140003</v>
       </c>
       <c r="C12">
-        <v>0.0145535117300726</v>
+        <v>0.04592065435343304</v>
       </c>
       <c r="D12">
-        <v>-0.04595482894900478</v>
+        <v>-0.005884918477608679</v>
       </c>
       <c r="E12">
-        <v>0.001749887186801772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.004763819707311771</v>
+      </c>
+      <c r="F12">
+        <v>0.003261695108060402</v>
+      </c>
+      <c r="G12">
+        <v>0.02675350754987735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02137575027454759</v>
+        <v>0.01327600067724355</v>
       </c>
       <c r="C13">
-        <v>0.01646228261997807</v>
+        <v>0.03298486630056203</v>
       </c>
       <c r="D13">
-        <v>-0.01152740727584317</v>
+        <v>-0.0247971181353334</v>
       </c>
       <c r="E13">
-        <v>0.007520852721508004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01879001739520973</v>
+      </c>
+      <c r="F13">
+        <v>0.0156620911814751</v>
+      </c>
+      <c r="G13">
+        <v>0.03444632868723273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006958384764583808</v>
+        <v>0.007057770351356319</v>
       </c>
       <c r="C14">
-        <v>0.0116263204500976</v>
+        <v>0.02729877710179962</v>
       </c>
       <c r="D14">
-        <v>-0.01659137243552286</v>
+        <v>-0.008805940230852453</v>
       </c>
       <c r="E14">
-        <v>-0.01045609288238749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.007553203491412278</v>
+      </c>
+      <c r="F14">
+        <v>-0.002459966021769335</v>
+      </c>
+      <c r="G14">
+        <v>0.04100578521945181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0005058382943812714</v>
+        <v>0.03025879559574783</v>
       </c>
       <c r="C16">
-        <v>0.01153041554177875</v>
+        <v>0.0444596203068344</v>
       </c>
       <c r="D16">
-        <v>-0.04965633266162665</v>
+        <v>-0.001397631462305297</v>
       </c>
       <c r="E16">
-        <v>0.004770240376418947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.003560603661084263</v>
+      </c>
+      <c r="F16">
+        <v>0.008253081011582517</v>
+      </c>
+      <c r="G16">
+        <v>0.02490554063148437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01302999806249275</v>
+        <v>0.02418432522613084</v>
       </c>
       <c r="C19">
-        <v>0.02696354233544659</v>
+        <v>0.05156719841267019</v>
       </c>
       <c r="D19">
-        <v>-0.02550800073859198</v>
+        <v>-0.01607052235516106</v>
       </c>
       <c r="E19">
-        <v>-0.005352022223066092</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04851699945403316</v>
+      </c>
+      <c r="F19">
+        <v>0.03108241531526976</v>
+      </c>
+      <c r="G19">
+        <v>0.04964791186660505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01020284150832111</v>
+        <v>0.01115694461283904</v>
       </c>
       <c r="C20">
-        <v>0.006670622299454031</v>
+        <v>0.03513226263184942</v>
       </c>
       <c r="D20">
-        <v>-0.01290772736337451</v>
+        <v>-0.01308597263573665</v>
       </c>
       <c r="E20">
-        <v>0.0007463044823604936</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02098825281486042</v>
+      </c>
+      <c r="F20">
+        <v>-0.001026094919835788</v>
+      </c>
+      <c r="G20">
+        <v>0.03919485526313178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01371863377998047</v>
+        <v>0.01369764078465248</v>
       </c>
       <c r="C21">
-        <v>0.03581612859625751</v>
+        <v>0.03678633256418375</v>
       </c>
       <c r="D21">
-        <v>-0.01806489452013967</v>
+        <v>-0.01621842855052077</v>
       </c>
       <c r="E21">
-        <v>-0.01911048454885309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0280744383635637</v>
+      </c>
+      <c r="F21">
+        <v>0.01066950016747791</v>
+      </c>
+      <c r="G21">
+        <v>0.0604003888366116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004784763240953481</v>
+        <v>0.02462676733810262</v>
       </c>
       <c r="C24">
-        <v>0.00732193516475396</v>
+        <v>0.04731709785804285</v>
       </c>
       <c r="D24">
-        <v>-0.04440982168095936</v>
+        <v>-0.006811411199259717</v>
       </c>
       <c r="E24">
-        <v>0.005603163387581048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0008581485366741092</v>
+      </c>
+      <c r="F24">
+        <v>0.01482815682292019</v>
+      </c>
+      <c r="G24">
+        <v>0.0267911523234587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01115277044131589</v>
+        <v>0.04095051071350011</v>
       </c>
       <c r="C25">
-        <v>0.02395916989140109</v>
+        <v>0.05483058957064873</v>
       </c>
       <c r="D25">
-        <v>-0.0432981379106478</v>
+        <v>-0.0108309231750872</v>
       </c>
       <c r="E25">
-        <v>0.004576351591972731</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.007555619285547407</v>
+      </c>
+      <c r="F25">
+        <v>0.008784934029639483</v>
+      </c>
+      <c r="G25">
+        <v>0.03263961004477719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02235503753356534</v>
+        <v>0.01031025877967297</v>
       </c>
       <c r="C26">
-        <v>0.007002931963858353</v>
+        <v>0.009694490088608549</v>
       </c>
       <c r="D26">
-        <v>0.005317842252019431</v>
+        <v>-0.02382809404034742</v>
       </c>
       <c r="E26">
-        <v>-0.009278040750066637</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.005590261406395408</v>
+      </c>
+      <c r="F26">
+        <v>0.002958743743290584</v>
+      </c>
+      <c r="G26">
+        <v>0.03209970935051108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02792238058403955</v>
+        <v>0.1215044933613016</v>
       </c>
       <c r="C28">
-        <v>0.2182918122343109</v>
+        <v>-0.2228780983625974</v>
       </c>
       <c r="D28">
-        <v>0.1913548809413723</v>
+        <v>0.008934061668334612</v>
       </c>
       <c r="E28">
-        <v>-0.03203402306069694</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0004896822261413382</v>
+      </c>
+      <c r="F28">
+        <v>-0.01040217973998477</v>
+      </c>
+      <c r="G28">
+        <v>0.05999771018643964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007165101021791213</v>
+        <v>0.01258650852174373</v>
       </c>
       <c r="C29">
-        <v>0.01709964520284517</v>
+        <v>0.02106840318848229</v>
       </c>
       <c r="D29">
-        <v>-0.01305390199760038</v>
+        <v>-0.007457179658002463</v>
       </c>
       <c r="E29">
-        <v>-0.006941088329163619</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.008931984800714846</v>
+      </c>
+      <c r="F29">
+        <v>-0.01158819230855509</v>
+      </c>
+      <c r="G29">
+        <v>0.03150577815851015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02312684876983568</v>
+        <v>0.0441834154936822</v>
       </c>
       <c r="C30">
-        <v>0.005480131435011353</v>
+        <v>0.06883636450944858</v>
       </c>
       <c r="D30">
-        <v>-0.06525430424332206</v>
+        <v>-0.02706394568151235</v>
       </c>
       <c r="E30">
-        <v>0.06037678327461982</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03159720120509146</v>
+      </c>
+      <c r="F30">
+        <v>0.04649749219361375</v>
+      </c>
+      <c r="G30">
+        <v>0.008980846108277596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007167294189140686</v>
+        <v>0.04474660051178993</v>
       </c>
       <c r="C31">
-        <v>0.04779066764081207</v>
+        <v>0.03229305791969527</v>
       </c>
       <c r="D31">
-        <v>-0.03818728415263076</v>
+        <v>-0.003307676280940715</v>
       </c>
       <c r="E31">
-        <v>-0.005436573942140354</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.006389008468660375</v>
+      </c>
+      <c r="F31">
+        <v>-0.03852900335379202</v>
+      </c>
+      <c r="G31">
+        <v>0.02688597167414862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007243947859467775</v>
+        <v>0.001017694895727444</v>
       </c>
       <c r="C32">
-        <v>0.01488224112683412</v>
+        <v>0.03442781580206905</v>
       </c>
       <c r="D32">
-        <v>-0.004417684507581975</v>
+        <v>0.004135083914908679</v>
       </c>
       <c r="E32">
-        <v>-0.02850484637798939</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.006622034328654037</v>
+      </c>
+      <c r="F32">
+        <v>0.05092572466662883</v>
+      </c>
+      <c r="G32">
+        <v>0.0594908007953631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01213755518748828</v>
+        <v>0.02528942158309593</v>
       </c>
       <c r="C33">
-        <v>0.02584051753309819</v>
+        <v>0.04943261222035968</v>
       </c>
       <c r="D33">
-        <v>-0.02122834890388179</v>
+        <v>-0.01431947356864627</v>
       </c>
       <c r="E33">
-        <v>0.02352913494929185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01923199640240484</v>
+      </c>
+      <c r="F33">
+        <v>0.02528174330497916</v>
+      </c>
+      <c r="G33">
+        <v>0.03627229439792996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004929234150211375</v>
+        <v>0.04344189626668126</v>
       </c>
       <c r="C34">
-        <v>0.02077940457802343</v>
+        <v>0.05536300763604906</v>
       </c>
       <c r="D34">
-        <v>-0.04932681351180144</v>
+        <v>0.005319274155257716</v>
       </c>
       <c r="E34">
-        <v>-0.003049083237326832</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01052379475928084</v>
+      </c>
+      <c r="F34">
+        <v>0.01855523097209086</v>
+      </c>
+      <c r="G34">
+        <v>0.03810858424591095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01161078685437179</v>
+        <v>0.01065632440174015</v>
       </c>
       <c r="C36">
-        <v>0.0169042742520982</v>
+        <v>0.007560860509712517</v>
       </c>
       <c r="D36">
-        <v>-0.0004941570014648112</v>
+        <v>-0.01151445028836148</v>
       </c>
       <c r="E36">
-        <v>-0.003247707208104473</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001246471181200634</v>
+      </c>
+      <c r="F36">
+        <v>-0.003120418110150399</v>
+      </c>
+      <c r="G36">
+        <v>0.02522129910586363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006173575655980038</v>
+        <v>0.03082692815019045</v>
       </c>
       <c r="C38">
-        <v>0.02768006109328757</v>
+        <v>0.02650070297865832</v>
       </c>
       <c r="D38">
-        <v>-0.02054654659801</v>
+        <v>0.007625942482095356</v>
       </c>
       <c r="E38">
-        <v>-0.002903630347712539</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003904023781148603</v>
+      </c>
+      <c r="F38">
+        <v>-0.005117211863421705</v>
+      </c>
+      <c r="G38">
+        <v>0.03381917817227188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.006009838705581092</v>
+        <v>0.02985110134366026</v>
       </c>
       <c r="C39">
-        <v>-0.01482765092048447</v>
+        <v>0.08180092332489768</v>
       </c>
       <c r="D39">
-        <v>-0.09640083518620177</v>
+        <v>-0.01210997423881855</v>
       </c>
       <c r="E39">
-        <v>0.01480671041572506</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01985805192207003</v>
+      </c>
+      <c r="F39">
+        <v>0.03851118780712823</v>
+      </c>
+      <c r="G39">
+        <v>0.02877702123092645</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0102500865072016</v>
+        <v>0.02003037781240638</v>
       </c>
       <c r="C40">
-        <v>0.01700754436592245</v>
+        <v>0.03185005086294014</v>
       </c>
       <c r="D40">
-        <v>-0.03675800817129828</v>
+        <v>-0.01285477531976404</v>
       </c>
       <c r="E40">
-        <v>0.007866047231605982</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01637715025141637</v>
+      </c>
+      <c r="F40">
+        <v>0.01874092586242189</v>
+      </c>
+      <c r="G40">
+        <v>0.02585230802187198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004879590217964238</v>
+        <v>0.01225451907766971</v>
       </c>
       <c r="C41">
-        <v>0.01886792253812963</v>
+        <v>-0.0005589884137573653</v>
       </c>
       <c r="D41">
-        <v>0.01008266925635197</v>
+        <v>-0.003578344508478806</v>
       </c>
       <c r="E41">
-        <v>-0.004972590484269646</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002905886721699977</v>
+      </c>
+      <c r="F41">
+        <v>-0.00185182833605843</v>
+      </c>
+      <c r="G41">
+        <v>0.01711156524194599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.095284691095696</v>
+        <v>0.01770559814084841</v>
       </c>
       <c r="C42">
-        <v>0.04338129171724091</v>
+        <v>0.04547528496758774</v>
       </c>
       <c r="D42">
-        <v>-0.2415257665923846</v>
+        <v>-0.09531502320992016</v>
       </c>
       <c r="E42">
-        <v>0.298607760254222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04148969980827281</v>
+      </c>
+      <c r="F42">
+        <v>-0.04683171085409215</v>
+      </c>
+      <c r="G42">
+        <v>-0.1746821340765934</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.00577713957818825</v>
+        <v>0.02740240989412706</v>
       </c>
       <c r="C43">
-        <v>0.01835051455355064</v>
+        <v>0.01005873586331069</v>
       </c>
       <c r="D43">
-        <v>0.0141989190965593</v>
+        <v>-0.003993715863217879</v>
       </c>
       <c r="E43">
-        <v>-0.0004763825555719603</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003310823669086695</v>
+      </c>
+      <c r="F43">
+        <v>-0.003011968464087736</v>
+      </c>
+      <c r="G43">
+        <v>0.0226283259594821</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002815250237974076</v>
+        <v>0.01432656790484832</v>
       </c>
       <c r="C44">
-        <v>-0.000988516944269151</v>
+        <v>0.04947969480284635</v>
       </c>
       <c r="D44">
-        <v>-0.03054564426751587</v>
+        <v>-0.006302976547483547</v>
       </c>
       <c r="E44">
-        <v>-0.00143067595732949</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01490378209463722</v>
+      </c>
+      <c r="F44">
+        <v>0.008695891913026693</v>
+      </c>
+      <c r="G44">
+        <v>0.03974199630478511</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01075065910789474</v>
+        <v>0.005733394782023452</v>
       </c>
       <c r="C46">
-        <v>0.01777562092866523</v>
+        <v>0.01765594974144163</v>
       </c>
       <c r="D46">
-        <v>-0.01706015872849545</v>
+        <v>-0.01191668066435017</v>
       </c>
       <c r="E46">
-        <v>0.002411756510313978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.00122111109563059</v>
+      </c>
+      <c r="F46">
+        <v>-0.01421186416847572</v>
+      </c>
+      <c r="G46">
+        <v>0.02721327665061263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.001249198429658387</v>
+        <v>0.0732473994287156</v>
       </c>
       <c r="C47">
-        <v>0.06159766537300224</v>
+        <v>0.0664834091764871</v>
       </c>
       <c r="D47">
-        <v>-0.04782031006282252</v>
+        <v>0.005015183763968974</v>
       </c>
       <c r="E47">
-        <v>0.004272938845042104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007965322886975381</v>
+      </c>
+      <c r="F47">
+        <v>-0.05894066220469243</v>
+      </c>
+      <c r="G47">
+        <v>0.02404145124327674</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002438912924440009</v>
+        <v>0.02095852502355448</v>
       </c>
       <c r="C48">
-        <v>0.02681445377010544</v>
+        <v>0.01044387640038433</v>
       </c>
       <c r="D48">
-        <v>-0.009828143861936567</v>
+        <v>-0.000901600145988162</v>
       </c>
       <c r="E48">
-        <v>-0.001382364722357137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002475219578894827</v>
+      </c>
+      <c r="F48">
+        <v>-0.01349323214006406</v>
+      </c>
+      <c r="G48">
+        <v>0.02988456851169667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002302961752182036</v>
+        <v>0.07698719048955063</v>
       </c>
       <c r="C50">
-        <v>0.05086384552584022</v>
+        <v>0.06794895375723853</v>
       </c>
       <c r="D50">
-        <v>-0.05899045679427632</v>
+        <v>0.003485611674073462</v>
       </c>
       <c r="E50">
-        <v>-0.02190765393384594</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01066100788744193</v>
+      </c>
+      <c r="F50">
+        <v>-0.05818744149004904</v>
+      </c>
+      <c r="G50">
+        <v>0.04761155779973582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006859480558930762</v>
+        <v>0.01068852484733505</v>
       </c>
       <c r="C51">
-        <v>0.01881594736659226</v>
+        <v>0.02742453109222478</v>
       </c>
       <c r="D51">
-        <v>0.01438133477743794</v>
+        <v>-0.009058247575962387</v>
       </c>
       <c r="E51">
-        <v>-0.0101411121869993</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.006690633455980888</v>
+      </c>
+      <c r="F51">
+        <v>0.02478056874968993</v>
+      </c>
+      <c r="G51">
+        <v>0.05453785450360899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.004060527134400501</v>
+        <v>0.09034334867240777</v>
       </c>
       <c r="C53">
-        <v>0.08129038548844759</v>
+        <v>0.08224454731674676</v>
       </c>
       <c r="D53">
-        <v>-0.1028915665350405</v>
+        <v>0.00496327644365329</v>
       </c>
       <c r="E53">
-        <v>-0.0001856384698729206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03778819735415694</v>
+      </c>
+      <c r="F53">
+        <v>-0.06861494247551998</v>
+      </c>
+      <c r="G53">
+        <v>0.02593128316168416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001133331337986968</v>
+        <v>0.02775183184647024</v>
       </c>
       <c r="C54">
-        <v>0.03453837410738458</v>
+        <v>0.01032389043032938</v>
       </c>
       <c r="D54">
-        <v>0.011434574635371</v>
+        <v>0.002869220838153096</v>
       </c>
       <c r="E54">
-        <v>-0.01163302302262598</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0015744093861965</v>
+      </c>
+      <c r="F54">
+        <v>-0.001275453872533067</v>
+      </c>
+      <c r="G54">
+        <v>0.03500525348673422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001628250085466007</v>
+        <v>0.07138126737176724</v>
       </c>
       <c r="C55">
-        <v>0.0596976983675133</v>
+        <v>0.07473566248474241</v>
       </c>
       <c r="D55">
-        <v>-0.09040135247368762</v>
+        <v>0.004550835906599667</v>
       </c>
       <c r="E55">
-        <v>0.01220769500534677</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02475507115120651</v>
+      </c>
+      <c r="F55">
+        <v>-0.06134175411179908</v>
+      </c>
+      <c r="G55">
+        <v>0.01033142889500834</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0007568268561713305</v>
+        <v>0.1412602180347118</v>
       </c>
       <c r="C56">
-        <v>0.1027587457940368</v>
+        <v>0.1069235415080175</v>
       </c>
       <c r="D56">
-        <v>-0.1320132781197178</v>
+        <v>0.01346778011235937</v>
       </c>
       <c r="E56">
-        <v>0.01180350396929304</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03361185317733679</v>
+      </c>
+      <c r="F56">
+        <v>-0.1003950319852491</v>
+      </c>
+      <c r="G56">
+        <v>-0.00299675017003173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02287807346995082</v>
+        <v>0.01073264270792171</v>
       </c>
       <c r="C57">
-        <v>0.02013923409651575</v>
+        <v>0.01061243438020908</v>
       </c>
       <c r="D57">
-        <v>-0.03873879828843869</v>
+        <v>-0.02350878896521721</v>
       </c>
       <c r="E57">
-        <v>0.01106534821749191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02610966112182031</v>
+      </c>
+      <c r="F57">
+        <v>0.01805069769650167</v>
+      </c>
+      <c r="G57">
+        <v>0.02031636685491069</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.00986224604599641</v>
+        <v>0.08588264566233117</v>
       </c>
       <c r="C58">
-        <v>0.1026601789099608</v>
+        <v>0.05010724346560762</v>
       </c>
       <c r="D58">
-        <v>-0.0975266265054701</v>
+        <v>-0.01264776959215509</v>
       </c>
       <c r="E58">
-        <v>0.2074855204309678</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9620119853225655</v>
+      </c>
+      <c r="F58">
+        <v>-0.1460086794585082</v>
+      </c>
+      <c r="G58">
+        <v>0.00492203375394934</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02391377918200948</v>
+        <v>0.1599463562847619</v>
       </c>
       <c r="C59">
-        <v>0.2252334703315775</v>
+        <v>-0.2074242755689705</v>
       </c>
       <c r="D59">
-        <v>0.190346675609421</v>
+        <v>0.01582090977123035</v>
       </c>
       <c r="E59">
-        <v>-0.00732934501429284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01116998869126106</v>
+      </c>
+      <c r="F59">
+        <v>0.01052897692476818</v>
+      </c>
+      <c r="G59">
+        <v>0.02178906919411104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03043535869228816</v>
+        <v>0.2861661893569618</v>
       </c>
       <c r="C60">
-        <v>0.1621003998387824</v>
+        <v>0.102761130833961</v>
       </c>
       <c r="D60">
-        <v>-0.07875749225949549</v>
+        <v>-0.009776107006313459</v>
       </c>
       <c r="E60">
-        <v>0.04917848705461512</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.03095433225953342</v>
+      </c>
+      <c r="F60">
+        <v>0.3740171295948315</v>
+      </c>
+      <c r="G60">
+        <v>-0.0770925635782355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002991348621780037</v>
+        <v>0.03130739543705832</v>
       </c>
       <c r="C61">
-        <v>0.01025452816759147</v>
+        <v>0.06562871660838548</v>
       </c>
       <c r="D61">
-        <v>-0.06889746483897841</v>
+        <v>-0.005360763339512256</v>
       </c>
       <c r="E61">
-        <v>0.008867438427825187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.008007350824231811</v>
+      </c>
+      <c r="F61">
+        <v>0.02044156082200077</v>
+      </c>
+      <c r="G61">
+        <v>0.02673589270796103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007095221009869294</v>
+        <v>0.01061095260357612</v>
       </c>
       <c r="C63">
-        <v>0.006805149884779173</v>
+        <v>0.02868122111584242</v>
       </c>
       <c r="D63">
-        <v>-0.007973075348593671</v>
+        <v>-0.008222375337704702</v>
       </c>
       <c r="E63">
-        <v>-0.008454156568362802</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.00655934147261233</v>
+      </c>
+      <c r="F63">
+        <v>-0.01962115724171863</v>
+      </c>
+      <c r="G63">
+        <v>0.03640988897187002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006962229659999018</v>
+        <v>0.04928803495052537</v>
       </c>
       <c r="C64">
-        <v>0.03372965196545665</v>
+        <v>0.04044198711991006</v>
       </c>
       <c r="D64">
-        <v>-0.06732302568874067</v>
+        <v>-0.005077065111207237</v>
       </c>
       <c r="E64">
-        <v>0.01188144218364323</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006894135737818191</v>
+      </c>
+      <c r="F64">
+        <v>0.00305956442738007</v>
+      </c>
+      <c r="G64">
+        <v>0.023272171171939</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0176469585215892</v>
+        <v>0.08194926482335838</v>
       </c>
       <c r="C65">
-        <v>0.02939486976713689</v>
+        <v>0.06517340034484442</v>
       </c>
       <c r="D65">
-        <v>-0.09474195104466945</v>
+        <v>-0.0151055247564555</v>
       </c>
       <c r="E65">
-        <v>0.002219496616475923</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01098165474489355</v>
+      </c>
+      <c r="F65">
+        <v>0.02636888871037722</v>
+      </c>
+      <c r="G65">
+        <v>0.01471636341578174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005628486743571189</v>
+        <v>0.05042227979713739</v>
       </c>
       <c r="C66">
-        <v>-0.002841137101610417</v>
+        <v>0.1153013842947333</v>
       </c>
       <c r="D66">
-        <v>-0.1202824654026064</v>
+        <v>-0.0115366947864531</v>
       </c>
       <c r="E66">
-        <v>0.03063071940052517</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02112895379028768</v>
+      </c>
+      <c r="F66">
+        <v>0.0450146944559711</v>
+      </c>
+      <c r="G66">
+        <v>0.02137556745229609</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001178879492305984</v>
+        <v>0.05435581799839138</v>
       </c>
       <c r="C67">
-        <v>0.04539970668884501</v>
+        <v>0.03190471143398609</v>
       </c>
       <c r="D67">
-        <v>-0.02460996275100154</v>
+        <v>0.005898833985137741</v>
       </c>
       <c r="E67">
-        <v>-0.001534007585513564</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003500278064858132</v>
+      </c>
+      <c r="F67">
+        <v>-0.006311761510288365</v>
+      </c>
+      <c r="G67">
+        <v>0.03149755404721222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04217457286064127</v>
+        <v>0.1433133680050943</v>
       </c>
       <c r="C68">
-        <v>0.2002704601502488</v>
+        <v>-0.2663671009185978</v>
       </c>
       <c r="D68">
-        <v>0.1779088715430817</v>
+        <v>-0.002208048990714058</v>
       </c>
       <c r="E68">
-        <v>-0.0002518782873095783</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01196223559874264</v>
+      </c>
+      <c r="F68">
+        <v>-0.03569999341795341</v>
+      </c>
+      <c r="G68">
+        <v>0.02270494901335806</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003201498620368182</v>
+        <v>0.07649092262312798</v>
       </c>
       <c r="C69">
-        <v>0.04576207818093871</v>
+        <v>0.06778269040691146</v>
       </c>
       <c r="D69">
-        <v>-0.056280172181124</v>
+        <v>0.008811637281532083</v>
       </c>
       <c r="E69">
-        <v>0.0003030786093506591</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02764040355833851</v>
+      </c>
+      <c r="F69">
+        <v>-0.0458562741802048</v>
+      </c>
+      <c r="G69">
+        <v>0.02561923302475998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02934958958437159</v>
+        <v>0.1405622844329752</v>
       </c>
       <c r="C71">
-        <v>0.1775000545316207</v>
+        <v>-0.2293115667089505</v>
       </c>
       <c r="D71">
-        <v>0.1642061421703541</v>
+        <v>0.007193494562060221</v>
       </c>
       <c r="E71">
-        <v>-0.01546525790722938</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02189928926573452</v>
+      </c>
+      <c r="F71">
+        <v>-0.01055392739591174</v>
+      </c>
+      <c r="G71">
+        <v>0.03362397427480265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002718722337423822</v>
+        <v>0.08012476716048138</v>
       </c>
       <c r="C72">
-        <v>0.04723717626209797</v>
+        <v>0.07520805676394751</v>
       </c>
       <c r="D72">
-        <v>-0.1370400684469631</v>
+        <v>0.008365023607378431</v>
       </c>
       <c r="E72">
-        <v>0.03245178289597858</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01516430273927719</v>
+      </c>
+      <c r="F72">
+        <v>0.03508657853824722</v>
+      </c>
+      <c r="G72">
+        <v>0.005599320686987854</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04405160560623227</v>
+        <v>0.391990609195122</v>
       </c>
       <c r="C73">
-        <v>0.1969496994228323</v>
+        <v>0.1172256803242933</v>
       </c>
       <c r="D73">
-        <v>-0.143238714742826</v>
+        <v>-0.01496366138069491</v>
       </c>
       <c r="E73">
-        <v>0.1095745624037807</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.01097976516644113</v>
+      </c>
+      <c r="F73">
+        <v>0.5535745952056778</v>
+      </c>
+      <c r="G73">
+        <v>-0.1274492403661558</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0007335593615491193</v>
+        <v>0.1143784385769731</v>
       </c>
       <c r="C74">
-        <v>0.09685536531542166</v>
+        <v>0.1212024581054821</v>
       </c>
       <c r="D74">
-        <v>-0.1366615273489123</v>
+        <v>0.01014654338434731</v>
       </c>
       <c r="E74">
-        <v>0.02013205036270576</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01913256459179525</v>
+      </c>
+      <c r="F74">
+        <v>-0.08714364755098546</v>
+      </c>
+      <c r="G74">
+        <v>0.03061051329261614</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.002446554574445649</v>
+        <v>0.2567347597974238</v>
       </c>
       <c r="C75">
-        <v>0.2316428472295145</v>
+        <v>0.1593928539633333</v>
       </c>
       <c r="D75">
-        <v>-0.2313849440430677</v>
+        <v>0.03088632684871224</v>
       </c>
       <c r="E75">
-        <v>0.04318657573546374</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05288609620770404</v>
+      </c>
+      <c r="F75">
+        <v>-0.2110483814479687</v>
+      </c>
+      <c r="G75">
+        <v>-0.04820838808588985</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004674448580687459</v>
+        <v>0.1325103942913496</v>
       </c>
       <c r="C76">
-        <v>0.1616773625325677</v>
+        <v>0.1280419054910955</v>
       </c>
       <c r="D76">
-        <v>-0.2128819496588532</v>
+        <v>0.02109813046124077</v>
       </c>
       <c r="E76">
-        <v>0.005504120415268746</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0494902276422684</v>
+      </c>
+      <c r="F76">
+        <v>-0.14471753001952</v>
+      </c>
+      <c r="G76">
+        <v>0.00983223750544852</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01152054057179665</v>
+        <v>0.06272326504955539</v>
       </c>
       <c r="C77">
-        <v>0.01588337957450303</v>
+        <v>0.06416438323619492</v>
       </c>
       <c r="D77">
-        <v>-0.06265275280094824</v>
+        <v>-0.01233432536855058</v>
       </c>
       <c r="E77">
-        <v>0.003890959157420372</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04256168541529008</v>
+      </c>
+      <c r="F77">
+        <v>0.01912182962175994</v>
+      </c>
+      <c r="G77">
+        <v>0.05481082417190912</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003932397597917007</v>
+        <v>0.03845913559472991</v>
       </c>
       <c r="C78">
-        <v>0.01360022944637697</v>
+        <v>0.051970164027972</v>
       </c>
       <c r="D78">
-        <v>-0.06587466036174169</v>
+        <v>-0.005760201695206659</v>
       </c>
       <c r="E78">
-        <v>0.005484201741105889</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01861662010408534</v>
+      </c>
+      <c r="F78">
+        <v>0.04250933845877248</v>
+      </c>
+      <c r="G78">
+        <v>0.03637225672784477</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01432194227024476</v>
+        <v>0.05615721918416074</v>
       </c>
       <c r="C80">
-        <v>0.1421915360670953</v>
+        <v>0.06752539267165211</v>
       </c>
       <c r="D80">
-        <v>-0.2211206597449179</v>
+        <v>-0.01263500061599736</v>
       </c>
       <c r="E80">
-        <v>-0.8976605763838982</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04118871922869728</v>
+      </c>
+      <c r="F80">
+        <v>0.02781989816557318</v>
+      </c>
+      <c r="G80">
+        <v>0.9115656118350478</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.002142219366662778</v>
+        <v>0.1442921615034617</v>
       </c>
       <c r="C81">
-        <v>0.1435092577818748</v>
+        <v>0.09686952527250296</v>
       </c>
       <c r="D81">
-        <v>-0.1497853635556322</v>
+        <v>0.01579034065920571</v>
       </c>
       <c r="E81">
-        <v>0.01839284278241151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0282040789027962</v>
+      </c>
+      <c r="F81">
+        <v>-0.1389354146080441</v>
+      </c>
+      <c r="G81">
+        <v>0.008865522862370743</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05184957799655544</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.04029571863497035</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002559114665902015</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0214658556810423</v>
+      </c>
+      <c r="F82">
+        <v>-0.01051600010743466</v>
+      </c>
+      <c r="G82">
+        <v>-0.005759311205592752</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006361293819256483</v>
+        <v>0.0284063359321468</v>
       </c>
       <c r="C83">
-        <v>0.02886422162227745</v>
+        <v>0.02207202343047353</v>
       </c>
       <c r="D83">
-        <v>-0.0218380517072071</v>
+        <v>-0.004901386710684929</v>
       </c>
       <c r="E83">
-        <v>0.006687322603927091</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02398646209155778</v>
+      </c>
+      <c r="F83">
+        <v>0.0190318319831149</v>
+      </c>
+      <c r="G83">
+        <v>0.02189550702107735</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.010151743341881</v>
+        <v>0.2300717225230911</v>
       </c>
       <c r="C85">
-        <v>0.1800247115629174</v>
+        <v>0.1553663950320712</v>
       </c>
       <c r="D85">
-        <v>-0.2398688779543676</v>
+        <v>0.01904004939008839</v>
       </c>
       <c r="E85">
-        <v>0.04654101022354923</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1008221653888501</v>
+      </c>
+      <c r="F85">
+        <v>-0.1906085002955654</v>
+      </c>
+      <c r="G85">
+        <v>-0.06640812199371079</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006593067380120064</v>
+        <v>0.01105166018896472</v>
       </c>
       <c r="C86">
-        <v>0.02569158799919498</v>
+        <v>0.01591992675779658</v>
       </c>
       <c r="D86">
-        <v>-0.009142829051062621</v>
+        <v>-0.009565658458846629</v>
       </c>
       <c r="E86">
-        <v>0.02168114721281192</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02633501189788147</v>
+      </c>
+      <c r="F86">
+        <v>0.03708009126839346</v>
+      </c>
+      <c r="G86">
+        <v>0.05344905853682515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007198741320879957</v>
+        <v>0.01953043994489303</v>
       </c>
       <c r="C87">
-        <v>0.01327669064383802</v>
+        <v>0.02673243416544116</v>
       </c>
       <c r="D87">
-        <v>-0.03907764440391961</v>
+        <v>-0.01052317234580447</v>
       </c>
       <c r="E87">
-        <v>0.007592717098445394</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08292025989282771</v>
+      </c>
+      <c r="F87">
+        <v>0.03529164574675869</v>
+      </c>
+      <c r="G87">
+        <v>0.04658568721875379</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02614655996124538</v>
+        <v>0.09007073536647114</v>
       </c>
       <c r="C88">
-        <v>0.04443628851588014</v>
+        <v>0.06388327847383062</v>
       </c>
       <c r="D88">
-        <v>-0.02495653624612211</v>
+        <v>-0.02189734425541644</v>
       </c>
       <c r="E88">
-        <v>0.004129728945174383</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01426076146958901</v>
+      </c>
+      <c r="F88">
+        <v>-0.01310187205306954</v>
+      </c>
+      <c r="G88">
+        <v>0.02235758477360784</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05703088724652139</v>
+        <v>0.2341230122809228</v>
       </c>
       <c r="C89">
-        <v>0.3394830174354876</v>
+        <v>-0.3623932448896705</v>
       </c>
       <c r="D89">
-        <v>0.2823704239627862</v>
+        <v>0.006673083044764897</v>
       </c>
       <c r="E89">
-        <v>-0.001020703753040681</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01870107695082352</v>
+      </c>
+      <c r="F89">
+        <v>-0.03226809232453094</v>
+      </c>
+      <c r="G89">
+        <v>0.03005944999195493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.0427758018642499</v>
+        <v>0.2024577267659969</v>
       </c>
       <c r="C90">
-        <v>0.2525267732111799</v>
+        <v>-0.3288831823384429</v>
       </c>
       <c r="D90">
-        <v>0.2565107540411941</v>
+        <v>0.01026271191188123</v>
       </c>
       <c r="E90">
-        <v>0.00250871667053885</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.00905043260371975</v>
+      </c>
+      <c r="F90">
+        <v>-0.04653796918831886</v>
+      </c>
+      <c r="G90">
+        <v>0.000184295903127301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001219132450703349</v>
+        <v>0.2022749802011944</v>
       </c>
       <c r="C91">
-        <v>0.1850297248628548</v>
+        <v>0.143428205757364</v>
       </c>
       <c r="D91">
-        <v>-0.2179378481517102</v>
+        <v>0.02459002783919213</v>
       </c>
       <c r="E91">
-        <v>0.02479585237941636</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07005201061669013</v>
+      </c>
+      <c r="F91">
+        <v>-0.1873463466924375</v>
+      </c>
+      <c r="G91">
+        <v>-0.004579567226871935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.009351778421223466</v>
+        <v>0.2100862700816512</v>
       </c>
       <c r="C92">
-        <v>0.3240691793793469</v>
+        <v>-0.2535867255396226</v>
       </c>
       <c r="D92">
-        <v>0.133133199820004</v>
+        <v>0.04844117713481561</v>
       </c>
       <c r="E92">
-        <v>0.001908706770704739</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.001000004715606103</v>
+      </c>
+      <c r="F92">
+        <v>-0.1127548356571489</v>
+      </c>
+      <c r="G92">
+        <v>0.06022656039559714</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04005726979449985</v>
+        <v>0.2295964345897567</v>
       </c>
       <c r="C93">
-        <v>0.2899541497403325</v>
+        <v>-0.330035232475175</v>
       </c>
       <c r="D93">
-        <v>0.2579051231793333</v>
+        <v>0.01780638527434603</v>
       </c>
       <c r="E93">
-        <v>0.02597649914563649</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.003530739593209208</v>
+      </c>
+      <c r="F93">
+        <v>-0.02778268040129383</v>
+      </c>
+      <c r="G93">
+        <v>-0.002561885392316688</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02014307145989298</v>
+        <v>0.2805156630056764</v>
       </c>
       <c r="C94">
-        <v>0.2320917318450663</v>
+        <v>0.1746255231331245</v>
       </c>
       <c r="D94">
-        <v>-0.2095423505759181</v>
+        <v>0.01297712227654138</v>
       </c>
       <c r="E94">
-        <v>0.06922531558807396</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.0847319699638789</v>
+      </c>
+      <c r="F94">
+        <v>-0.4220506176623005</v>
+      </c>
+      <c r="G94">
+        <v>-0.1383316087020317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006169436688101551</v>
+        <v>0.08537296549226978</v>
       </c>
       <c r="C95">
-        <v>0.05042340580542977</v>
+        <v>0.07870225842689683</v>
       </c>
       <c r="D95">
-        <v>-0.07327939328224417</v>
+        <v>0.007307057424549745</v>
       </c>
       <c r="E95">
-        <v>0.1154035726244896</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06027126046326627</v>
+      </c>
+      <c r="F95">
+        <v>0.1993633624702193</v>
+      </c>
+      <c r="G95">
+        <v>-0.05827816430807111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.00496725984284891</v>
+        <v>0.2048262941041306</v>
       </c>
       <c r="C98">
-        <v>0.1672455023384376</v>
+        <v>0.05002887078805853</v>
       </c>
       <c r="D98">
-        <v>-0.1010782502309743</v>
+        <v>0.01643035689421475</v>
       </c>
       <c r="E98">
-        <v>0.06771404233247101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.03911708005966956</v>
+      </c>
+      <c r="F98">
+        <v>0.2582281047849476</v>
+      </c>
+      <c r="G98">
+        <v>-0.02782603049292447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007007476453800733</v>
+        <v>0.01244546946466163</v>
       </c>
       <c r="C101">
-        <v>0.01770195582599086</v>
+        <v>0.02117148101605243</v>
       </c>
       <c r="D101">
-        <v>-0.01359047437291669</v>
+        <v>-0.007247598370043749</v>
       </c>
       <c r="E101">
-        <v>-0.007094852393196397</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.00927605973680423</v>
+      </c>
+      <c r="F101">
+        <v>-0.01341460882172363</v>
+      </c>
+      <c r="G101">
+        <v>0.03146939144610976</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01420437077547448</v>
+        <v>0.1207008496484002</v>
       </c>
       <c r="C102">
-        <v>0.1109376244888962</v>
+        <v>0.08562499476079098</v>
       </c>
       <c r="D102">
-        <v>-0.1131270553079636</v>
+        <v>-0.0005571788079993347</v>
       </c>
       <c r="E102">
-        <v>0.0217822741248679</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03506136254493022</v>
+      </c>
+      <c r="F102">
+        <v>-0.0551478070018013</v>
+      </c>
+      <c r="G102">
+        <v>-0.009951448760544442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001837636200890951</v>
+        <v>0.004504364909619649</v>
       </c>
       <c r="C103">
-        <v>0.01733071815306239</v>
+        <v>0.005379923227544192</v>
       </c>
       <c r="D103">
-        <v>-0.02756876013925625</v>
+        <v>-0.0004292875304993589</v>
       </c>
       <c r="E103">
-        <v>-0.01213666399219372</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002066565307284874</v>
+      </c>
+      <c r="F103">
+        <v>-0.009477235983287017</v>
+      </c>
+      <c r="G103">
+        <v>0.01734029129591602</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9844883064770087</v>
+        <v>0.03411677128950556</v>
       </c>
       <c r="C104">
-        <v>-0.1110729449922541</v>
+        <v>-0.03926221563547162</v>
       </c>
       <c r="D104">
-        <v>-0.003191352761499741</v>
+        <v>-0.9873376127929518</v>
       </c>
       <c r="E104">
-        <v>-0.02729050323483</v>
+        <v>0.03216453534612382</v>
+      </c>
+      <c r="F104">
+        <v>-0.04445195174896654</v>
+      </c>
+      <c r="G104">
+        <v>-0.008475615259877854</v>
       </c>
     </row>
   </sheetData>
